--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.728763666666667</v>
+        <v>0.1636203333333333</v>
       </c>
       <c r="H2">
-        <v>17.186291</v>
+        <v>0.490861</v>
       </c>
       <c r="I2">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="J2">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>135.4038989054848</v>
+        <v>0.3139720938954444</v>
       </c>
       <c r="R2">
-        <v>1218.635090149363</v>
+        <v>2.825748845059</v>
       </c>
       <c r="S2">
-        <v>0.06709176236736414</v>
+        <v>0.002182898671829176</v>
       </c>
       <c r="T2">
-        <v>0.06709176236736414</v>
+        <v>0.002182898671829176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.728763666666667</v>
+        <v>0.1636203333333333</v>
       </c>
       <c r="H3">
-        <v>17.186291</v>
+        <v>0.490861</v>
       </c>
       <c r="I3">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="J3">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
-        <v>1038.558349458848</v>
+        <v>29.66246701942378</v>
       </c>
       <c r="R3">
-        <v>9347.025145129635</v>
+        <v>266.962203174814</v>
       </c>
       <c r="S3">
-        <v>0.514598992715656</v>
+        <v>0.2062290283716721</v>
       </c>
       <c r="T3">
-        <v>0.5145989927156559</v>
+        <v>0.2062290283716721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.728763666666667</v>
+        <v>0.1636203333333333</v>
       </c>
       <c r="H4">
-        <v>17.186291</v>
+        <v>0.490861</v>
       </c>
       <c r="I4">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="J4">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>172.6823485357042</v>
+        <v>4.752789829737445</v>
       </c>
       <c r="R4">
-        <v>1554.141136821338</v>
+        <v>42.775108467637</v>
       </c>
       <c r="S4">
-        <v>0.08556299476341389</v>
+        <v>0.03304388768471891</v>
       </c>
       <c r="T4">
-        <v>0.08556299476341389</v>
+        <v>0.03304388768471891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>5.728763666666667</v>
+        <v>0.1636203333333333</v>
       </c>
       <c r="H5">
-        <v>17.186291</v>
+        <v>0.490861</v>
       </c>
       <c r="I5">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="J5">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>636.4687731812165</v>
+        <v>13.39633385414178</v>
       </c>
       <c r="R5">
-        <v>5728.218958630949</v>
+        <v>120.567004687276</v>
       </c>
       <c r="S5">
-        <v>0.3153661898194591</v>
+        <v>0.09313833919050286</v>
       </c>
       <c r="T5">
-        <v>0.3153661898194591</v>
+        <v>0.09313833919050286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1013273333333333</v>
+        <v>0.325391</v>
       </c>
       <c r="H6">
-        <v>0.303982</v>
+        <v>0.9761730000000001</v>
       </c>
       <c r="I6">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="J6">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N6">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P6">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q6">
-        <v>2.394952348769555</v>
+        <v>0.6243948507096667</v>
       </c>
       <c r="R6">
-        <v>21.554571138926</v>
+        <v>5.619553656387</v>
       </c>
       <c r="S6">
-        <v>0.001186683508847609</v>
+        <v>0.004341120490679647</v>
       </c>
       <c r="T6">
-        <v>0.001186683508847609</v>
+        <v>0.004341120490679647</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1013273333333333</v>
+        <v>0.325391</v>
       </c>
       <c r="H7">
-        <v>0.303982</v>
+        <v>0.9761730000000001</v>
       </c>
       <c r="I7">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="J7">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P7">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q7">
-        <v>18.36946925809645</v>
+        <v>58.98961094434468</v>
       </c>
       <c r="R7">
-        <v>165.325223322868</v>
+        <v>530.9064984991021</v>
       </c>
       <c r="S7">
-        <v>0.009101954051848101</v>
+        <v>0.4101267147169164</v>
       </c>
       <c r="T7">
-        <v>0.009101954051848099</v>
+        <v>0.4101267147169164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1013273333333333</v>
+        <v>0.325391</v>
       </c>
       <c r="H8">
-        <v>0.303982</v>
+        <v>0.9761730000000001</v>
       </c>
       <c r="I8">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="J8">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N8">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P8">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q8">
-        <v>3.054313794208444</v>
+        <v>9.451851148215669</v>
       </c>
       <c r="R8">
-        <v>27.488824147876</v>
+        <v>85.066660333941</v>
       </c>
       <c r="S8">
-        <v>0.001513392870757983</v>
+        <v>0.06571422657912344</v>
       </c>
       <c r="T8">
-        <v>0.001513392870757983</v>
+        <v>0.06571422657912344</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1013273333333333</v>
+        <v>0.325391</v>
       </c>
       <c r="H9">
-        <v>0.303982</v>
+        <v>0.9761730000000001</v>
       </c>
       <c r="I9">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="J9">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N9">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P9">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q9">
-        <v>11.25752209183311</v>
+        <v>26.64122716491867</v>
       </c>
       <c r="R9">
-        <v>101.317698826498</v>
+        <v>239.771044484268</v>
       </c>
       <c r="S9">
-        <v>0.005578029902653157</v>
+        <v>0.1852237842945574</v>
       </c>
       <c r="T9">
-        <v>0.005578029902653157</v>
+        <v>0.1852237842945574</v>
       </c>
     </row>
   </sheetData>
